--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/15/seed4/result_data_RandomForest.xlsx
@@ -536,7 +536,7 @@
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.54400000000001</v>
+        <v>-11.8084</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>4.750999999999999</v>
+        <v>4.690799999999999</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>16.003</v>
+        <v>16.11180000000001</v>
       </c>
     </row>
     <row r="8">
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.82780000000001</v>
+        <v>-21.6277</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -610,7 +610,7 @@
         <v>-8.85</v>
       </c>
       <c r="E10" t="n">
-        <v>16.7969</v>
+        <v>16.79119999999999</v>
       </c>
     </row>
     <row r="11">
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.359499999999997</v>
+        <v>5.411799999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.66860000000001</v>
+        <v>16.58530000000001</v>
       </c>
     </row>
     <row r="14">
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.079800000000006</v>
+        <v>6.064699999999997</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.33879999999999</v>
+        <v>-13.67149999999999</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.06290000000001</v>
+        <v>15.95900000000001</v>
       </c>
     </row>
     <row r="17">
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.17370000000002</v>
+        <v>-22.24470000000002</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.63959999999999</v>
+        <v>-19.50179999999998</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.35949999999999</v>
+        <v>16.15879999999999</v>
       </c>
     </row>
     <row r="21">
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.49779999999999</v>
+        <v>16.5736</v>
       </c>
     </row>
     <row r="25">
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.237400000000004</v>
+        <v>4.074800000000006</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.46979999999997</v>
+        <v>-21.55719999999997</v>
       </c>
       <c r="B27" t="n">
-        <v>5.482900000000003</v>
+        <v>5.385800000000004</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>4.946699999999997</v>
+        <v>4.824599999999998</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -995,7 +995,7 @@
         <v>6.69</v>
       </c>
       <c r="C33" t="n">
-        <v>-11.1451</v>
+        <v>-11.29179999999999</v>
       </c>
       <c r="D33" t="n">
         <v>-6.63</v>
@@ -1023,13 +1023,13 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-19.09609999999999</v>
+        <v>-19.24669999999999</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-11.7863</v>
+        <v>-11.5487</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>9.155500000000007</v>
+        <v>9.074000000000005</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1077,10 +1077,10 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>4.879800000000002</v>
+        <v>4.462000000000002</v>
       </c>
       <c r="C38" t="n">
-        <v>-11.961</v>
+        <v>-12.0033</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>15.99119999999999</v>
+        <v>16.0696</v>
       </c>
     </row>
     <row r="40">
@@ -1165,7 +1165,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-13.61319999999999</v>
+        <v>-13.28589999999999</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.29069999999998</v>
+        <v>-13.34899999999999</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1233,13 +1233,13 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.14579999999999</v>
+        <v>-12.17689999999999</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.85560000000001</v>
+        <v>16.82929999999999</v>
       </c>
     </row>
     <row r="48">
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.52379999999999</v>
+        <v>17.5246</v>
       </c>
     </row>
     <row r="49">
@@ -1298,10 +1298,10 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>6.266200000000005</v>
+        <v>6.219800000000005</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.5049</v>
+        <v>-11.5547</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.029199999999996</v>
+        <v>5.085999999999999</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>16.94170000000001</v>
+        <v>17.05960000000001</v>
       </c>
     </row>
     <row r="53">
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.717799999999997</v>
+        <v>4.859399999999997</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.5888</v>
+        <v>16.58740000000001</v>
       </c>
     </row>
     <row r="57">
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.17209999999999</v>
+        <v>-13.61759999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1505,7 +1505,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-12.3778</v>
+        <v>-12.44090000000001</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.66599999999999</v>
+        <v>-21.6355</v>
       </c>
       <c r="B69" t="n">
-        <v>5.460199999999995</v>
+        <v>5.235999999999999</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1621,10 +1621,10 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>5.963700000000006</v>
+        <v>6.292900000000007</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.3563</v>
+        <v>-11.5211</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.04559999999999</v>
+        <v>-20.00879999999998</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.79679999999998</v>
+        <v>-20.15879999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.184200000000001</v>
+        <v>5.4309</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.77380000000002</v>
+        <v>-21.8168</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-22.0272</v>
+        <v>-22.0405</v>
       </c>
       <c r="B83" t="n">
-        <v>5.854299999999999</v>
+        <v>6.2474</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.9106</v>
+        <v>16.79799999999999</v>
       </c>
     </row>
     <row r="85">
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-12.002</v>
+        <v>-11.9643</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.44379999999997</v>
+        <v>-20.46009999999998</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-11.6607</v>
+        <v>-12.19429999999999</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.4215</v>
+        <v>16.47230000000001</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.86020000000001</v>
+        <v>16.81220000000001</v>
       </c>
     </row>
     <row r="102">
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.979600000000007</v>
+        <v>9.062000000000006</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
